--- a/excel-files/keywords/products-list.xlsx
+++ b/excel-files/keywords/products-list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geffe\Documents\SILABUZ\TU-MESITA\28 AGOSTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geffe\Documents\SILABUZ\bonno\6-set\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB51FBD-0258-4699-A7F1-F84FFF6EAF23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{500E305E-BB56-4C3B-A4D2-F3B53E0E7BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{18B657FF-97C9-4337-8B0B-CFF21CDE9031}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BB6D2A9F-B0F7-4840-8DFF-3CA20C555DC5}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="47">
+  <si>
+    <t>Categoria</t>
+  </si>
   <si>
     <t>Nombre</t>
   </si>
@@ -44,29 +47,143 @@
     <t>Marca</t>
   </si>
   <si>
-    <t>Categoria</t>
-  </si>
-  <si>
-    <t>Tocador Contemporáneo Vico Blanco 210 cm TU MESITA</t>
-  </si>
-  <si>
-    <t>TU MESITA</t>
+    <t xml:space="preserve">Gabinete de Baño Alden Muebles Gaudi </t>
+  </si>
+  <si>
+    <t>Gabinete de Baño Alden Blanco Muebles Gaudi</t>
+  </si>
+  <si>
+    <t>Gabinete de Baño Alden Negro Muebles Gaudi</t>
+  </si>
+  <si>
+    <t>Gabinete de Baño Beckett Muebles Gaudi</t>
+  </si>
+  <si>
+    <t>Gabinete de Baño Beckett Grafito Muebles Gaudi</t>
+  </si>
+  <si>
+    <t>Gabinete de Baño Brooks Muebles Gaudi</t>
+  </si>
+  <si>
+    <t>Gabinete de Baño Byron Muebles Gaudi</t>
+  </si>
+  <si>
+    <t>Gabinete de Baño Calvin Muebles Gaudi</t>
+  </si>
+  <si>
+    <t>Gabinete de Baño Cormac Muebles Gaudi</t>
+  </si>
+  <si>
+    <t>Gabinete de Baño Dashiell Muebles Gaudi</t>
+  </si>
+  <si>
+    <t>Velador Dexter Muebles Gaudi</t>
+  </si>
+  <si>
+    <t>Velador Dexter Blanco Muebles Gaudi</t>
+  </si>
+  <si>
+    <t>Velador Dexter Duna Muebles Gaudi</t>
+  </si>
+  <si>
+    <t>Velador Dexter Grafito Muebles Gaudi</t>
+  </si>
+  <si>
+    <t>MUEBLES GAUDI</t>
+  </si>
+  <si>
+    <t>Velador Huck Muebles Gaudi</t>
+  </si>
+  <si>
+    <t>Velador Huck Habano Muebles Gaudi</t>
+  </si>
+  <si>
+    <t>Velador Jack Muebles Gaudi</t>
+  </si>
+  <si>
+    <t>Velador Jack Oceano Muebles Gaudi</t>
+  </si>
+  <si>
+    <t>Velador Jack Negro Muebles Gaudi</t>
+  </si>
+  <si>
+    <t>Velador Jett Muebles Gaudi</t>
+  </si>
+  <si>
+    <t>Velador Jett Blanco Muebles Gaudi</t>
+  </si>
+  <si>
+    <t>Velador Jett Duna Muebles Gaudi</t>
+  </si>
+  <si>
+    <t>Velador Lincoln Muebles Gaudi</t>
+  </si>
+  <si>
+    <t>Velador Lincoln Blanco Muebles Gaudi</t>
+  </si>
+  <si>
+    <t>Velador Mavel Muebles Gaudi</t>
+  </si>
+  <si>
+    <t>Velador Mavel Amazónico Muebles Gaudi</t>
+  </si>
+  <si>
+    <t>Tocador Monty Muebles Gaudi</t>
+  </si>
+  <si>
+    <t>Tocador Monty Negro Muebles Gaudi</t>
+  </si>
+  <si>
+    <t>Tocador Orson Premium Muebles Gaudi</t>
+  </si>
+  <si>
+    <t>Tocador Otis Muebles Gaudi</t>
+  </si>
+  <si>
+    <t>Tocador Infantil Ryder Muebles Gaudi</t>
+  </si>
+  <si>
+    <t>Tocador Infantil Ryder Rosa Muebles Gaudi</t>
+  </si>
+  <si>
+    <t>Tocador Sullivan Muebles Gaudi</t>
+  </si>
+  <si>
+    <t>Tocador Waldo Muebles Gaudi</t>
+  </si>
+  <si>
+    <t>Tocador Portatil Watson Muebles Gaudi</t>
+  </si>
+  <si>
+    <t>Tocador Zane Muebles Gaudi</t>
+  </si>
+  <si>
+    <t>Tocador Premium Anais Muebles Gaudi</t>
+  </si>
+  <si>
+    <t>Tocador Silvi Muebles Gaudi</t>
+  </si>
+  <si>
+    <t>Tocador Multifuncional Birdie Muebles Gaudi</t>
+  </si>
+  <si>
+    <t>Tocador Multifuncional Birdie Grafito Muebles Gaudi</t>
+  </si>
+  <si>
+    <t>Organización de Baño</t>
+  </si>
+  <si>
+    <t>Veladores</t>
   </si>
   <si>
     <t>Tocadores y Percheros</t>
-  </si>
-  <si>
-    <t>Tocador Contemporáneo Colucci Blanco 230 cm TU MESITA</t>
-  </si>
-  <si>
-    <t>Tocador Contemporáneo Federal Blanco Negro 150cm TU MESITA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -431,88 +548,479 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4AEAE28-25B8-4FBB-9A8E-AB36A8C474FC}">
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D9981B8-0A8C-4140-8339-1132395B1CCC}">
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="42.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
